--- a/WebTours_load_profile.xlsx
+++ b/WebTours_load_profile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e58ae3e276031c1c/Рабочий стол/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="248" documentId="8_{533F1919-29D9-44A8-A490-65D97C0A8379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2516192C-D883-47E7-B63E-529BE5BE67E9}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{533F1919-29D9-44A8-A490-65D97C0A8379}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72604686-BFB1-4973-8F26-C4A0F70417FF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="639" r:id="rId3"/>
+    <pivotCache cacheId="234" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
   <si>
     <t>Вход в систему</t>
   </si>
@@ -235,19 +235,25 @@
     <t>Fillform_RegistrationUser</t>
   </si>
   <si>
-    <t>01_MAIN_BuyTicket</t>
-  </si>
-  <si>
-    <t>02_MAIN_DeletingTickets</t>
-  </si>
-  <si>
-    <t>03_MAIN_RegistrationUser</t>
-  </si>
-  <si>
-    <t>04_MAIN_LoginAndLogout</t>
-  </si>
-  <si>
-    <t>05_MAIN_SelectingList</t>
+    <t>MAIN_BuyTicket</t>
+  </si>
+  <si>
+    <t>MAIN_DeletingTickets</t>
+  </si>
+  <si>
+    <t>MAIN_RegistrationUser</t>
+  </si>
+  <si>
+    <t>MAIN_SelectingList</t>
+  </si>
+  <si>
+    <t>MAIN_LoginAndFill_Flight</t>
+  </si>
+  <si>
+    <t>Н</t>
+  </si>
+  <si>
+    <t>Continue</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -997,17 +1003,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1077,7 +1072,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1163,25 +1158,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="43" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="47" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="42" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="48" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="50" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="66">
     <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1277,16 +1270,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Георгий Каляев" refreshedDate="44270.970847337965" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="26" xr:uid="{BD6CF2DB-FFF8-4B0A-9046-EFF5F1169BC0}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Георгий Каляев" refreshedDate="44271.04101828704" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="28" xr:uid="{957A093A-81DA-4CAF-9EB9-863D7AF956EA}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H27" sheet="Автоматизированный расчет"/>
+    <worksheetSource ref="A1:H29" sheet="Автоматизированный расчет"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Script name" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="transaction rq" numFmtId="0">
-      <sharedItems count="11">
+      <sharedItems containsBlank="1" count="13">
         <s v="OpenSite"/>
         <s v="Login"/>
         <s v="Click_Flights"/>
@@ -1298,25 +1291,27 @@
         <s v="Tickets_Remove"/>
         <s v="Click_SignUpNow"/>
         <s v="Fillform_RegistrationUser"/>
+        <s v="Continue"/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="count" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="1"/>
     </cacheField>
     <cacheField name="VU" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
     </cacheField>
     <cacheField name="pacing" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="43" maxValue="98"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="41" maxValue="365"/>
     </cacheField>
     <cacheField name="одним пользователем в минуту" numFmtId="2">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="0.61224489795918369" maxValue="1.3953488372093024"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.16438356164383561" maxValue="1.4634146341463414"/>
     </cacheField>
     <cacheField name="Длительность ступени" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="60" maxValue="60"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60" maxValue="60"/>
     </cacheField>
     <cacheField name="Итого" numFmtId="1">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="36.734693877551024" maxValue="173.49397590361446"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="19.726027397260275" maxValue="175.60975609756096"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1328,281 +1323,302 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="26">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="28">
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="0"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="1"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="2"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="3"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="4"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="5"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="01_MAIN_BuyTicket"/>
+    <s v="MAIN_BuyTicket"/>
     <x v="6"/>
     <n v="1"/>
     <n v="4"/>
-    <n v="83"/>
-    <n v="0.72289156626506024"/>
+    <n v="82"/>
+    <n v="0.73170731707317072"/>
     <n v="60"/>
-    <n v="173.49397590361446"/>
+    <n v="175.60975609756096"/>
   </r>
   <r>
-    <s v="02_MAIN_DeletingTickets"/>
+    <s v="MAIN_DeletingTickets"/>
     <x v="0"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="48"/>
-    <n v="1.25"/>
+    <n v="47"/>
+    <n v="1.2765957446808511"/>
     <n v="60"/>
-    <n v="75"/>
+    <n v="76.59574468085107"/>
   </r>
   <r>
-    <s v="02_MAIN_DeletingTickets"/>
+    <s v="MAIN_DeletingTickets"/>
     <x v="1"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="48"/>
-    <n v="1.25"/>
+    <n v="47"/>
+    <n v="1.2765957446808511"/>
     <n v="60"/>
-    <n v="75"/>
+    <n v="76.59574468085107"/>
   </r>
   <r>
-    <s v="02_MAIN_DeletingTickets"/>
+    <s v="MAIN_DeletingTickets"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="48"/>
-    <n v="1.25"/>
+    <n v="47"/>
+    <n v="1.2765957446808511"/>
     <n v="60"/>
-    <n v="75"/>
+    <n v="76.59574468085107"/>
   </r>
   <r>
-    <s v="02_MAIN_DeletingTickets"/>
+    <s v="MAIN_DeletingTickets"/>
     <x v="8"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="48"/>
-    <n v="1.25"/>
+    <n v="47"/>
+    <n v="1.2765957446808511"/>
     <n v="60"/>
-    <n v="75"/>
+    <n v="76.59574468085107"/>
   </r>
   <r>
-    <s v="02_MAIN_DeletingTickets"/>
+    <s v="MAIN_DeletingTickets"/>
     <x v="6"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="48"/>
-    <n v="1.25"/>
+    <n v="47"/>
+    <n v="1.2765957446808511"/>
     <n v="60"/>
-    <n v="75"/>
+    <n v="76.59574468085107"/>
   </r>
   <r>
-    <s v="03_MAIN_RegistrationUser"/>
+    <s v="MAIN_RegistrationUser"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="1.2"/>
+    <n v="365"/>
+    <n v="0.16438356164383561"/>
     <n v="60"/>
-    <n v="144"/>
+    <n v="19.726027397260275"/>
   </r>
   <r>
-    <s v="03_MAIN_RegistrationUser"/>
+    <s v="MAIN_RegistrationUser"/>
     <x v="9"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="1.2"/>
+    <n v="365"/>
+    <n v="0.16438356164383561"/>
     <n v="60"/>
-    <n v="144"/>
+    <n v="19.726027397260275"/>
   </r>
   <r>
-    <s v="03_MAIN_RegistrationUser"/>
+    <s v="MAIN_RegistrationUser"/>
     <x v="10"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="50"/>
-    <n v="1.2"/>
+    <n v="365"/>
+    <n v="0.16438356164383561"/>
     <n v="60"/>
-    <n v="144"/>
+    <n v="19.726027397260275"/>
   </r>
   <r>
-    <s v="04_MAIN_LoginAndLogout"/>
+    <s v="MAIN_RegistrationUser"/>
+    <x v="11"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="365"/>
+    <n v="0.16438356164383561"/>
+    <n v="60"/>
+    <n v="19.726027397260275"/>
+  </r>
+  <r>
+    <s v="MAIN_RegistrationUser"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="365"/>
+    <n v="0.16438356164383561"/>
+    <n v="60"/>
+    <n v="19.726027397260275"/>
+  </r>
+  <r>
+    <s v="MAIN_RegistrationUser"/>
+    <x v="3"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="365"/>
+    <n v="0.16438356164383561"/>
+    <n v="60"/>
+    <n v="19.726027397260275"/>
+  </r>
+  <r>
+    <s v="MAIN_LoginAndFill_Flight"/>
     <x v="0"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="98"/>
-    <n v="0.61224489795918369"/>
+    <n v="120"/>
+    <n v="0.5"/>
     <n v="60"/>
-    <n v="73.469387755102048"/>
+    <n v="60"/>
   </r>
   <r>
-    <s v="04_MAIN_LoginAndLogout"/>
+    <s v="MAIN_LoginAndFill_Flight"/>
     <x v="1"/>
     <n v="1"/>
     <n v="2"/>
-    <n v="98"/>
-    <n v="0.61224489795918369"/>
+    <n v="120"/>
+    <n v="0.5"/>
     <n v="60"/>
-    <n v="73.469387755102048"/>
+    <n v="60"/>
   </r>
   <r>
-    <s v="04_MAIN_LoginAndLogout"/>
+    <s v="MAIN_LoginAndFill_Flight"/>
     <x v="2"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="120"/>
+    <n v="0.5"/>
+    <n v="60"/>
+    <n v="60"/>
   </r>
   <r>
-    <s v="04_MAIN_LoginAndLogout"/>
+    <s v="MAIN_SelectingList"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
+    <n v="60"/>
+    <n v="87.804878048780481"/>
+  </r>
+  <r>
+    <s v="MAIN_SelectingList"/>
+    <x v="1"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
+    <n v="60"/>
+    <n v="87.804878048780481"/>
+  </r>
+  <r>
+    <s v="MAIN_SelectingList"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
+    <n v="60"/>
+    <n v="87.804878048780481"/>
+  </r>
+  <r>
+    <s v="MAIN_SelectingList"/>
     <x v="3"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="98"/>
-    <n v="0.61224489795918369"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
     <n v="60"/>
-    <n v="36.734693877551024"/>
+    <n v="87.804878048780481"/>
   </r>
   <r>
-    <s v="05_MAIN_SelectingList"/>
-    <x v="0"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
-    <n v="60"/>
-    <n v="83.720930232558146"/>
-  </r>
-  <r>
-    <s v="05_MAIN_SelectingList"/>
-    <x v="1"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
-    <n v="60"/>
-    <n v="83.720930232558146"/>
-  </r>
-  <r>
-    <s v="05_MAIN_SelectingList"/>
-    <x v="2"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
-    <n v="60"/>
-    <n v="83.720930232558146"/>
-  </r>
-  <r>
-    <s v="05_MAIN_SelectingList"/>
-    <x v="3"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
-    <n v="60"/>
-    <n v="83.720930232558146"/>
-  </r>
-  <r>
-    <s v="05_MAIN_SelectingList"/>
+    <s v="MAIN_SelectingList"/>
     <x v="4"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
     <n v="60"/>
-    <n v="83.720930232558146"/>
+    <n v="87.804878048780481"/>
   </r>
   <r>
-    <s v="05_MAIN_SelectingList"/>
+    <s v="MAIN_SelectingList"/>
     <x v="7"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
     <n v="60"/>
-    <n v="83.720930232558146"/>
+    <n v="87.804878048780481"/>
   </r>
   <r>
-    <s v="05_MAIN_SelectingList"/>
+    <s v="MAIN_SelectingList"/>
     <x v="6"/>
     <n v="1"/>
     <n v="1"/>
-    <n v="43"/>
-    <n v="1.3953488372093024"/>
+    <n v="41"/>
+    <n v="1.4634146341463414"/>
     <n v="60"/>
-    <n v="83.720930232558146"/>
+    <n v="87.804878048780481"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8FD0461F-6DCD-467E-90C2-87E35426C2D5}" name="Сводная таблица3" cacheId="639" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I1:J13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D593AC22-6D51-4C96-8388-C9F6416D7A55}" name="Сводная таблица1" cacheId="234" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Значения" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I1:J14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="12">
+      <items count="14">
         <item x="4"/>
         <item x="2"/>
         <item x="7"/>
         <item x="9"/>
+        <item x="11"/>
         <item x="3"/>
         <item x="5"/>
         <item x="10"/>
@@ -1610,20 +1626,21 @@
         <item x="6"/>
         <item x="0"/>
         <item x="8"/>
+        <item m="1" x="12"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" numFmtId="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
     <field x="1"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
@@ -1656,6 +1673,9 @@
     </i>
     <i>
       <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
     </i>
     <i t="grand">
       <x/>
@@ -1942,10 +1962,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A73EA1-9683-764A-B533-D46D1B03E170}">
-  <dimension ref="A1:X71"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2031,7 +2051,7 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B2" t="s">
@@ -2041,31 +2061,31 @@
         <v>1</v>
       </c>
       <c r="D2" s="19">
-        <f t="shared" ref="D2:D27" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
+        <f t="shared" ref="D2:D29" si="0">VLOOKUP(A2,$M$1:$W$8,6,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E2">
         <f>VLOOKUP(A2,$M$1:$W$8,5,FALSE)</f>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" s="18">
         <f>60/E2</f>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G2">
         <v>60</v>
       </c>
       <c r="H2" s="17">
         <f>D2*F2*G2</f>
-        <v>173.49397590361446</v>
+        <v>175.60975609756096</v>
       </c>
       <c r="I2" s="42" t="s">
         <v>60</v>
       </c>
       <c r="J2" s="40">
-        <v>257.2149061361726</v>
-      </c>
-      <c r="M2" t="s">
+        <v>263.41463414634143</v>
+      </c>
+      <c r="M2" s="44" t="s">
         <v>68</v>
       </c>
       <c r="N2" s="26">
@@ -2078,22 +2098,22 @@
         <f>N2+O2</f>
         <v>18.979300000000002</v>
       </c>
-      <c r="Q2" s="43">
-        <v>83</v>
-      </c>
-      <c r="R2" s="43">
+      <c r="Q2" s="55">
+        <v>82</v>
+      </c>
+      <c r="R2" s="55">
         <v>4</v>
       </c>
       <c r="S2" s="16">
         <f>60/(Q2)</f>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="T2" s="22">
         <v>20</v>
       </c>
       <c r="U2" s="23">
         <f>ROUND(R2*S2*T2,0)</f>
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V2" s="24">
         <f>R2/W$2</f>
@@ -2105,10 +2125,10 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="47" t="s">
         <v>57</v>
       </c>
       <c r="C3">
@@ -2119,27 +2139,30 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E26" si="1">VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
-        <v>83</v>
+        <f t="shared" ref="E3:E28" si="1">VLOOKUP(A3,$M$1:$W$8,5,FALSE)</f>
+        <v>82</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F26" si="2">60/E3</f>
-        <v>0.72289156626506024</v>
+        <f t="shared" ref="F3:F28" si="2">60/E3</f>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G3">
         <v>60</v>
       </c>
       <c r="H3" s="17">
-        <f t="shared" ref="H3:H26" si="3">D3*F3*G3</f>
-        <v>173.49397590361446</v>
+        <f t="shared" ref="H3:H28" si="3">D3*F3*G3</f>
+        <v>175.60975609756096</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>58</v>
       </c>
       <c r="J3" s="40">
-        <v>257.2149061361726</v>
-      </c>
-      <c r="M3" t="s">
+        <v>343.14066154360171</v>
+      </c>
+      <c r="L3" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="45" t="s">
         <v>69</v>
       </c>
       <c r="N3" s="26">
@@ -2152,22 +2175,22 @@
         <f t="shared" ref="P3:P6" si="4">N3+O3</f>
         <v>9.6279000000000003</v>
       </c>
-      <c r="Q3" s="43">
-        <v>48</v>
-      </c>
-      <c r="R3" s="43">
+      <c r="Q3" s="55">
+        <v>47</v>
+      </c>
+      <c r="R3" s="55">
         <v>1</v>
       </c>
       <c r="S3" s="16">
         <f t="shared" ref="S3:S6" si="5">60/(Q3)</f>
-        <v>1.25</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="T3" s="22">
         <v>20</v>
       </c>
       <c r="U3" s="23">
         <f t="shared" ref="U3:U6" si="6">ROUND(R3*S3*T3,0)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="V3" s="24">
         <f>R3/W$2</f>
@@ -2175,7 +2198,7 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="44" t="s">
         <v>68</v>
       </c>
       <c r="B4" t="s">
@@ -2190,54 +2213,54 @@
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="18">
         <f t="shared" si="2"/>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G4">
         <v>60</v>
       </c>
       <c r="H4" s="17">
         <f t="shared" si="3"/>
-        <v>173.49397590361446</v>
+        <v>175.60975609756096</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>63</v>
       </c>
       <c r="J4" s="40">
-        <v>158.72093023255815</v>
-      </c>
-      <c r="M4" t="s">
+        <v>164.40062272963155</v>
+      </c>
+      <c r="M4" s="43" t="s">
         <v>70</v>
       </c>
       <c r="N4" s="26">
-        <v>0.47910000000000003</v>
+        <v>0.81220000000000003</v>
       </c>
       <c r="O4" s="26">
-        <v>5.9196</v>
+        <v>14.988099999999999</v>
       </c>
       <c r="P4" s="39">
         <f t="shared" si="4"/>
-        <v>6.3986999999999998</v>
-      </c>
-      <c r="Q4" s="43">
-        <v>50</v>
-      </c>
-      <c r="R4" s="43">
+        <v>15.8003</v>
+      </c>
+      <c r="Q4" s="55">
+        <v>365</v>
+      </c>
+      <c r="R4" s="55">
         <v>2</v>
       </c>
       <c r="S4" s="16">
         <f t="shared" si="5"/>
-        <v>1.2</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="T4" s="22">
         <v>20</v>
       </c>
       <c r="U4" s="23">
         <f t="shared" si="6"/>
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="V4" s="24">
         <f t="shared" ref="V4:V6" si="7">R4/W$2</f>
@@ -2245,10 +2268,10 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="48" t="s">
         <v>59</v>
       </c>
       <c r="C5">
@@ -2260,54 +2283,54 @@
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="2"/>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G5">
         <v>60</v>
       </c>
       <c r="H5" s="17">
         <f t="shared" si="3"/>
-        <v>173.49397590361446</v>
+        <v>175.60975609756096</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>66</v>
       </c>
       <c r="J5" s="40">
-        <v>144</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
+        <v>19.726027397260275</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>72</v>
       </c>
       <c r="N5" s="26">
         <v>0.52569999999999995</v>
       </c>
       <c r="O5" s="26">
-        <v>5.9974999999999996</v>
+        <v>5.4718</v>
       </c>
       <c r="P5" s="39">
         <f t="shared" si="4"/>
-        <v>6.5231999999999992</v>
-      </c>
-      <c r="Q5" s="43">
-        <v>98</v>
-      </c>
-      <c r="R5" s="43">
+        <v>5.9974999999999996</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>120</v>
+      </c>
+      <c r="R5" s="55">
         <v>2</v>
       </c>
       <c r="S5" s="16">
         <f t="shared" si="5"/>
-        <v>0.61224489795918369</v>
+        <v>0.5</v>
       </c>
       <c r="T5" s="22">
         <v>20</v>
       </c>
       <c r="U5" s="23">
         <f t="shared" si="6"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="V5" s="24">
         <f t="shared" si="7"/>
@@ -2315,10 +2338,10 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="49" t="s">
         <v>60</v>
       </c>
       <c r="C6">
@@ -2330,54 +2353,54 @@
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F6" s="18">
         <f t="shared" si="2"/>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G6">
         <v>60</v>
       </c>
       <c r="H6" s="17">
         <f t="shared" si="3"/>
-        <v>173.49397590361446</v>
+        <v>175.60975609756096</v>
       </c>
       <c r="I6" s="42" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="J6" s="40">
-        <v>293.94960001372363</v>
-      </c>
-      <c r="M6" t="s">
-        <v>72</v>
+        <v>19.726027397260275</v>
+      </c>
+      <c r="M6" s="57" t="s">
+        <v>71</v>
       </c>
       <c r="N6" s="26">
         <v>1.0510999999999999</v>
       </c>
       <c r="O6" s="26">
-        <v>19.069400000000002</v>
+        <v>18.0183</v>
       </c>
       <c r="P6" s="39">
         <f t="shared" si="4"/>
-        <v>20.1205</v>
-      </c>
-      <c r="Q6" s="43">
-        <v>43</v>
-      </c>
-      <c r="R6" s="43">
+        <v>19.069400000000002</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>41</v>
+      </c>
+      <c r="R6" s="55">
         <v>1</v>
       </c>
       <c r="S6" s="16">
         <f t="shared" si="5"/>
-        <v>1.3953488372093024</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="T6" s="22">
         <v>20</v>
       </c>
       <c r="U6" s="23">
         <f t="shared" si="6"/>
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="V6" s="24">
         <f t="shared" si="7"/>
@@ -2385,10 +2408,10 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="52" t="s">
+      <c r="B7" s="50" t="s">
         <v>61</v>
       </c>
       <c r="C7">
@@ -2400,29 +2423,29 @@
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F7" s="18">
         <f t="shared" si="2"/>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G7">
         <v>60</v>
       </c>
       <c r="H7" s="17">
         <f t="shared" si="3"/>
-        <v>173.49397590361446</v>
+        <v>175.60975609756096</v>
       </c>
       <c r="I7" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J7" s="40">
-        <v>173.49397590361446</v>
+        <v>283.14066154360171</v>
       </c>
       <c r="T7" s="22"/>
       <c r="U7" s="23">
         <f>SUM(U2:U6)</f>
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="V7" s="24">
         <f>SUM(V2:V6)</f>
@@ -2430,43 +2453,43 @@
       </c>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F8" s="18">
         <f t="shared" si="2"/>
-        <v>0.72289156626506024</v>
+        <v>0.73170731707317072</v>
       </c>
       <c r="G8">
         <v>60</v>
       </c>
       <c r="H8" s="17">
         <f t="shared" si="3"/>
-        <v>173.49397590361446</v>
+        <v>175.60975609756096</v>
       </c>
       <c r="I8" s="42" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="J8" s="40">
-        <v>144</v>
+        <v>175.60975609756096</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="45" t="s">
         <v>69</v>
       </c>
       <c r="B9" t="s">
@@ -2481,31 +2504,31 @@
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F9" s="18">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="G9">
         <v>60</v>
       </c>
       <c r="H9" s="17">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="I9" s="42" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="J9" s="40">
-        <v>405.68429389127465</v>
+        <v>19.726027397260275</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
+      <c r="A10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="49" t="s">
+      <c r="B10" s="47" t="s">
         <v>57</v>
       </c>
       <c r="C10">
@@ -2517,31 +2540,31 @@
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F10" s="18">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="G10">
         <v>60</v>
       </c>
       <c r="H10" s="17">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="I10" s="42" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J10" s="40">
-        <v>332.2149061361726</v>
+        <v>400.01037882719254</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="B11" s="53" t="s">
         <v>63</v>
       </c>
       <c r="C11">
@@ -2553,31 +2576,31 @@
       </c>
       <c r="E11">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="18">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="G11">
         <v>60</v>
       </c>
       <c r="H11" s="17">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="I11" s="42" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J11" s="40">
-        <v>549.68429389127459</v>
+        <v>340.01037882719254</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
+      <c r="A12" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="51" t="s">
         <v>64</v>
       </c>
       <c r="C12">
@@ -2589,64 +2612,64 @@
       </c>
       <c r="E12">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F12" s="18">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="G12">
         <v>60</v>
       </c>
       <c r="H12" s="17">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="I12" s="42" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J12" s="40">
-        <v>75</v>
+        <v>419.73640622445282</v>
       </c>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="46" t="s">
+      <c r="A13" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="52" t="s">
         <v>62</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="21">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E13">
         <f t="shared" si="1"/>
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F13" s="18">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.2765957446808511</v>
       </c>
       <c r="G13">
         <v>60</v>
       </c>
       <c r="H13" s="17">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>76.59574468085107</v>
       </c>
       <c r="I13" s="42" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="J13" s="40">
-        <v>2791.1778123409631</v>
+        <v>76.59574468085107</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
@@ -2661,22 +2684,28 @@
       </c>
       <c r="E14">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>365</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="G14">
         <v>60</v>
       </c>
       <c r="H14" s="17">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>19.726027397260275</v>
+      </c>
+      <c r="I14" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="40">
+        <v>2525.2373268122074</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B15" t="s">
@@ -2691,22 +2720,22 @@
       </c>
       <c r="E15">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>365</v>
       </c>
       <c r="F15" s="18">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="G15">
         <v>60</v>
       </c>
       <c r="H15" s="17">
         <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44" t="s">
+        <v>19.726027397260275</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="43" t="s">
         <v>70</v>
       </c>
       <c r="B16" t="s">
@@ -2721,56 +2750,56 @@
       </c>
       <c r="E16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>365</v>
       </c>
       <c r="F16" s="18">
         <f t="shared" si="2"/>
-        <v>1.2</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="G16">
         <v>60</v>
       </c>
       <c r="H16" s="17">
         <f t="shared" si="3"/>
-        <v>144</v>
+        <v>19.726027397260275</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="47" t="s">
-        <v>71</v>
+      <c r="A17" s="43" t="s">
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="20">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="E17">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="F17" s="18">
         <f t="shared" si="2"/>
-        <v>0.61224489795918369</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="G17">
         <v>60</v>
       </c>
       <c r="H17" s="17">
         <f t="shared" si="3"/>
-        <v>73.469387755102048</v>
+        <v>19.726027397260275</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>57</v>
+      <c r="A18" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -2781,156 +2810,176 @@
       </c>
       <c r="E18">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>365</v>
       </c>
       <c r="F18" s="18">
         <f t="shared" si="2"/>
-        <v>0.61224489795918369</v>
+        <v>0.16438356164383561</v>
       </c>
       <c r="G18">
         <v>60</v>
       </c>
       <c r="H18" s="17">
         <f t="shared" si="3"/>
-        <v>73.469387755102048</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="20"/>
-      <c r="F19" s="18"/>
-      <c r="H19" s="17"/>
-    </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B20" s="50" t="s">
+        <v>19.726027397260275</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B19" s="48" t="s">
         <v>59</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>365</v>
+      </c>
+      <c r="F19" s="18">
+        <f t="shared" si="2"/>
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="G19">
+        <v>60</v>
+      </c>
+      <c r="H19" s="17">
+        <f t="shared" si="3"/>
+        <v>19.726027397260275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="20">
-        <v>1</v>
+      <c r="D20" s="19">
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="E20">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="F20" s="18">
         <f t="shared" si="2"/>
-        <v>0.61224489795918369</v>
+        <v>0.5</v>
       </c>
       <c r="G20">
         <v>60</v>
       </c>
       <c r="H20" s="17">
         <f t="shared" si="3"/>
-        <v>36.734693877551024</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B21" t="s">
-        <v>65</v>
+      <c r="B21" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="19">
+      <c r="D21" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="F21" s="18">
         <f t="shared" si="2"/>
-        <v>1.3953488372093024</v>
+        <v>0.5</v>
       </c>
       <c r="G21">
         <v>60</v>
       </c>
       <c r="H21" s="17">
         <f t="shared" si="3"/>
-        <v>83.720930232558146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="48" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="49" t="s">
-        <v>57</v>
+      <c r="B22" t="s">
+        <v>58</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" s="20">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="F22" s="18">
         <f t="shared" si="2"/>
-        <v>1.3953488372093024</v>
+        <v>0.5</v>
       </c>
       <c r="G22">
         <v>60</v>
       </c>
       <c r="H22" s="17">
         <f t="shared" si="3"/>
-        <v>83.720930232558146</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>72</v>
+      <c r="A23" s="57" t="s">
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="19">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E23">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" s="18">
         <f t="shared" si="2"/>
-        <v>1.3953488372093024</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="G23">
         <v>60</v>
       </c>
       <c r="H23" s="17">
         <f t="shared" si="3"/>
-        <v>83.720930232558146</v>
+        <v>87.804878048780481</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>59</v>
+      <c r="A24" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="47" t="s">
+        <v>57</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -2941,26 +2990,26 @@
       </c>
       <c r="E24">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F24" s="18">
         <f t="shared" si="2"/>
-        <v>1.3953488372093024</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="G24">
         <v>60</v>
       </c>
       <c r="H24" s="17">
         <f t="shared" si="3"/>
-        <v>83.720930232558146</v>
+        <v>87.804878048780481</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="51" t="s">
-        <v>60</v>
+      <c r="A25" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -2971,610 +3020,670 @@
       </c>
       <c r="E25">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25" s="18">
         <f t="shared" si="2"/>
-        <v>1.3953488372093024</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="G25">
         <v>60</v>
       </c>
       <c r="H25" s="17">
         <f t="shared" si="3"/>
-        <v>83.720930232558146</v>
+        <v>87.804878048780481</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="56" t="s">
-        <v>63</v>
+      <c r="A26" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="48" t="s">
+        <v>59</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="57">
+      <c r="D26" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E26">
         <f t="shared" si="1"/>
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" si="2"/>
-        <v>1.3953488372093024</v>
+        <v>1.4634146341463414</v>
       </c>
       <c r="G26">
         <v>60</v>
       </c>
       <c r="H26" s="17">
         <f t="shared" si="3"/>
-        <v>83.720930232558146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="54" t="s">
-        <v>62</v>
+        <v>87.804878048780481</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>60</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D27" s="20">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="E27">
-        <f t="shared" ref="E27" si="8">VLOOKUP(A27,$M$1:$W$8,5,FALSE)</f>
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>41</v>
       </c>
       <c r="F27" s="18">
-        <f t="shared" ref="F27" si="9">60/E27</f>
-        <v>1.3953488372093024</v>
+        <f t="shared" si="2"/>
+        <v>1.4634146341463414</v>
       </c>
       <c r="G27">
         <v>60</v>
       </c>
       <c r="H27" s="17">
-        <f t="shared" ref="H27" si="10">D27*F27*G27</f>
-        <v>83.720930232558146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+        <f t="shared" si="3"/>
+        <v>87.804878048780481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="F28" s="18">
+        <f t="shared" si="2"/>
+        <v>1.4634146341463414</v>
+      </c>
+      <c r="G28">
+        <v>60</v>
+      </c>
+      <c r="H28" s="17">
+        <f t="shared" si="3"/>
+        <v>87.804878048780481</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="52" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ref="E29" si="8">VLOOKUP(A29,$M$1:$W$8,5,FALSE)</f>
+        <v>41</v>
+      </c>
+      <c r="F29" s="18">
+        <f t="shared" ref="F29" si="9">60/E29</f>
+        <v>1.4634146341463414</v>
+      </c>
+      <c r="G29">
+        <v>60</v>
+      </c>
+      <c r="H29" s="17">
+        <f t="shared" ref="H29" si="10">D29*F29*G29</f>
+        <v>87.804878048780481</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B31" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C31" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D29" s="34" t="s">
+      <c r="D31" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G31" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="H31" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="I29" s="31" t="s">
+      <c r="I31" s="31" t="s">
         <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="37">
-        <v>422</v>
-      </c>
-      <c r="C30" s="32">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A30)</f>
-        <v>405.68429389127465</v>
-      </c>
-      <c r="D30" s="33">
-        <f>1-B30/C30</f>
-        <v>-4.0217741614364977E-2</v>
-      </c>
-      <c r="G30" s="25">
-        <f>C30/3</f>
-        <v>135.22809796375822</v>
-      </c>
-      <c r="H30" s="25">
-        <v>63</v>
-      </c>
-      <c r="I30" s="28">
-        <f>1-G30/H30</f>
-        <v>-1.1464777454564796</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="37">
-        <v>282</v>
-      </c>
-      <c r="C31" s="29">
-        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A31)</f>
-        <v>293.94960001372363</v>
-      </c>
-      <c r="D31" s="27">
-        <f t="shared" ref="D31:D37" si="11">1-B31/C31</f>
-        <v>4.0651866895432875E-2</v>
-      </c>
-      <c r="G31" s="25">
-        <f t="shared" ref="G31:G36" si="12">C31/6</f>
-        <v>48.991600002287271</v>
-      </c>
-      <c r="H31" s="25">
-        <v>42</v>
-      </c>
-      <c r="I31" s="28">
-        <f t="shared" ref="I31:I36" si="13">1-G31/H31</f>
-        <v>-0.16646666672112542</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="36" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B32" s="37">
-        <v>251</v>
-      </c>
-      <c r="C32" s="29">
+        <v>422</v>
+      </c>
+      <c r="C32" s="32">
         <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A32)</f>
-        <v>257.2149061361726</v>
-      </c>
-      <c r="D32" s="27">
-        <f t="shared" si="11"/>
-        <v>2.4162309368191748E-2</v>
+        <v>400.01037882719254</v>
+      </c>
+      <c r="D32" s="33">
+        <f>1-B32/C32</f>
+        <v>-5.4972626553540405E-2</v>
       </c>
       <c r="G32" s="25">
-        <f t="shared" si="12"/>
-        <v>42.869151022695434</v>
+        <f>C32/3</f>
+        <v>133.33679294239752</v>
       </c>
       <c r="H32" s="25">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I32" s="28">
-        <f t="shared" si="13"/>
-        <v>-2.0694071968938799E-2</v>
+        <f>1-G32/H32</f>
+        <v>-1.1164570308317066</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="36" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="37">
-        <v>175</v>
+        <v>282</v>
       </c>
       <c r="C33" s="29">
-        <f t="shared" ref="C33:C36" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)</f>
-        <v>173.49397590361446</v>
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A33)</f>
+        <v>283.14066154360171</v>
       </c>
       <c r="D33" s="27">
-        <f t="shared" si="11"/>
-        <v>-8.6805555555555802E-3</v>
-      </c>
-      <c r="E33" s="1"/>
+        <f t="shared" ref="D33:D39" si="11">1-B33/C33</f>
+        <v>4.0286037949588405E-3</v>
+      </c>
       <c r="G33" s="25">
-        <f t="shared" si="12"/>
-        <v>28.91566265060241</v>
+        <f t="shared" ref="G33:G38" si="12">C33/6</f>
+        <v>47.190110257266952</v>
       </c>
       <c r="H33" s="25">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="I33" s="28">
-        <f t="shared" si="13"/>
-        <v>-7.0950468540829981E-2</v>
+        <f t="shared" ref="I33:I38" si="13">1-G33/H33</f>
+        <v>-0.12357405374445118</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B34" s="37">
-        <v>159</v>
+        <v>251</v>
       </c>
       <c r="C34" s="29">
-        <f t="shared" si="14"/>
-        <v>158.72093023255815</v>
+        <f>GETPIVOTDATA("Итого",$I$1,"transaction rq",A34)</f>
+        <v>263.41463414634143</v>
       </c>
       <c r="D34" s="27">
         <f t="shared" si="11"/>
-        <v>-1.7582417582417964E-3</v>
+        <v>4.7129629629629521E-2</v>
       </c>
       <c r="G34" s="25">
         <f t="shared" si="12"/>
-        <v>26.453488372093023</v>
+        <v>43.90243902439024</v>
       </c>
       <c r="H34" s="25">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="I34" s="28">
         <f t="shared" si="13"/>
-        <v>8.7810745789895783E-2</v>
+        <v>-4.5296167247386609E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" s="37">
-        <v>73</v>
+        <v>175</v>
       </c>
       <c r="C35" s="29">
-        <f t="shared" si="14"/>
-        <v>75</v>
+        <f t="shared" ref="C35:C38" si="14">GETPIVOTDATA("Итого",$I$1,"transaction rq",A35)</f>
+        <v>175.60975609756096</v>
       </c>
       <c r="D35" s="27">
         <f t="shared" si="11"/>
-        <v>2.6666666666666616E-2</v>
-      </c>
+        <v>3.4722222222220989E-3</v>
+      </c>
+      <c r="E35" s="1"/>
       <c r="G35" s="25">
         <f t="shared" si="12"/>
-        <v>12.5</v>
+        <v>29.268292682926827</v>
       </c>
       <c r="H35" s="25">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="I35" s="28">
         <f t="shared" si="13"/>
-        <v>3.8461538461538436E-2</v>
+        <v>-8.4010840108400986E-2</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A36" s="36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B36" s="37">
-        <v>326</v>
+        <v>159</v>
       </c>
       <c r="C36" s="29">
         <f t="shared" si="14"/>
-        <v>332.2149061361726</v>
+        <v>164.40062272963155</v>
       </c>
       <c r="D36" s="27">
         <f t="shared" si="11"/>
-        <v>1.8707487296265812E-2</v>
+        <v>3.2850378787878776E-2</v>
       </c>
       <c r="G36" s="25">
         <f t="shared" si="12"/>
-        <v>55.369151022695434</v>
+        <v>27.400103788271924</v>
       </c>
       <c r="H36" s="25">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="I36" s="28">
         <f t="shared" si="13"/>
-        <v>1.1265160309010147E-2</v>
+        <v>5.5168834887175056E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="38" t="s">
-        <v>6</v>
+      <c r="A37" s="36" t="s">
+        <v>64</v>
       </c>
       <c r="B37" s="37">
-        <v>1688</v>
-      </c>
-      <c r="C37" s="30">
-        <f>SUM(C30:C36)</f>
-        <v>1696.2786123135163</v>
+        <v>73</v>
+      </c>
+      <c r="C37" s="29">
+        <f t="shared" si="14"/>
+        <v>76.59574468085107</v>
       </c>
       <c r="D37" s="27">
         <f t="shared" si="11"/>
-        <v>4.8804555179914333E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="58"/>
-      <c r="B43" s="58"/>
-      <c r="C43" s="58"/>
-      <c r="D43" s="58"/>
-      <c r="E43" s="58"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
+        <v>4.6944444444444566E-2</v>
+      </c>
+      <c r="G37" s="25">
+        <f t="shared" si="12"/>
+        <v>12.765957446808512</v>
+      </c>
+      <c r="H37" s="25">
+        <v>13</v>
+      </c>
+      <c r="I37" s="28">
+        <f t="shared" si="13"/>
+        <v>1.8003273322422131E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38" s="37">
+        <v>326</v>
+      </c>
+      <c r="C38" s="29">
+        <f t="shared" si="14"/>
+        <v>340.01037882719254</v>
+      </c>
+      <c r="D38" s="27">
+        <f t="shared" si="11"/>
+        <v>4.1205738705738737E-2</v>
+      </c>
+      <c r="G38" s="25">
+        <f t="shared" si="12"/>
+        <v>56.668396471198754</v>
+      </c>
+      <c r="H38" s="25">
+        <v>56</v>
+      </c>
+      <c r="I38" s="28">
+        <f t="shared" si="13"/>
+        <v>-1.1935651271406389E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="37">
+        <v>1688</v>
+      </c>
+      <c r="C39" s="30">
+        <f>SUM(C32:C38)</f>
+        <v>1703.1821768523719</v>
+      </c>
+      <c r="D39" s="27">
+        <f t="shared" si="11"/>
+        <v>8.9140064161720156E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="58"/>
-      <c r="D44" s="58"/>
-      <c r="E44" s="58"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="58" t="s">
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="58"/>
-      <c r="E45" s="58"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="58" t="s">
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="58"/>
-      <c r="D46" s="58"/>
-      <c r="E46" s="58"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="58"/>
-      <c r="B47" s="58"/>
-      <c r="C47" s="58"/>
-      <c r="D47" s="58"/>
-      <c r="E47" s="58"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="59">
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="55">
         <v>1.0864</v>
       </c>
-      <c r="B48" s="59">
+      <c r="B50" s="55">
         <v>17.892900000000001</v>
       </c>
-      <c r="C48" s="59">
-        <f>A48+B48</f>
+      <c r="C50" s="55">
+        <f>A50+B50</f>
         <v>18.979300000000002</v>
       </c>
-      <c r="D48" s="59">
+      <c r="D50" s="55">
         <v>80</v>
       </c>
-      <c r="E48" s="59">
+      <c r="E50" s="55">
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="59">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="55">
         <v>0.66459999999999997</v>
       </c>
-      <c r="B49" s="59">
+      <c r="B51" s="55">
         <v>8.9633000000000003</v>
       </c>
-      <c r="C49" s="59">
-        <f t="shared" ref="C49:C52" si="15">A49+B49</f>
+      <c r="C51" s="55">
+        <f t="shared" ref="C51:C54" si="15">A51+B51</f>
         <v>9.6279000000000003</v>
       </c>
-      <c r="D49" s="59">
+      <c r="D51" s="55">
         <v>51</v>
       </c>
-      <c r="E49" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="59">
+      <c r="E51" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="55">
         <v>0.47910000000000003</v>
       </c>
-      <c r="B50" s="59">
+      <c r="B52" s="55">
         <v>5.9196</v>
       </c>
-      <c r="C50" s="59">
+      <c r="C52" s="55">
         <f t="shared" si="15"/>
         <v>6.3986999999999998</v>
       </c>
-      <c r="D50" s="59">
+      <c r="D52" s="55">
         <v>50</v>
       </c>
-      <c r="E50" s="59">
+      <c r="E52" s="55">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="59">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="55">
         <v>0.52569999999999995</v>
       </c>
-      <c r="B51" s="59">
+      <c r="B53" s="55">
         <v>5.9974999999999996</v>
       </c>
-      <c r="C51" s="59">
+      <c r="C53" s="55">
         <f t="shared" si="15"/>
         <v>6.5231999999999992</v>
       </c>
-      <c r="D51" s="59">
+      <c r="D53" s="55">
         <v>100</v>
       </c>
-      <c r="E51" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="59">
+      <c r="E53" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="55">
         <v>1.0510999999999999</v>
       </c>
-      <c r="B52" s="59">
+      <c r="B54" s="55">
         <v>19.069400000000002</v>
       </c>
-      <c r="C52" s="59">
+      <c r="C54" s="55">
         <f t="shared" si="15"/>
         <v>20.1205</v>
       </c>
-      <c r="D52" s="59">
+      <c r="D54" s="55">
         <v>41</v>
       </c>
-      <c r="E52" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="58"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="58"/>
-      <c r="D54" s="58"/>
-      <c r="E54" s="58"/>
+      <c r="E54" s="55">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="58"/>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="58"/>
-      <c r="D56" s="58"/>
-      <c r="E56" s="58"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
-      <c r="B57" s="58" t="s">
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C57" s="58"/>
-      <c r="D57" s="58"/>
-      <c r="E57" s="58"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="58"/>
-      <c r="B58" s="58" t="s">
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="54"/>
+      <c r="B60" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="58"/>
-      <c r="B59" s="58"/>
-      <c r="C59" s="58"/>
-      <c r="D59" s="59">
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="55">
         <v>83</v>
       </c>
-      <c r="E59" s="59">
+      <c r="E61" s="55">
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
-      <c r="B60" s="58" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="54"/>
+      <c r="B62" s="54" t="s">
         <v>65</v>
       </c>
-      <c r="C60" s="58"/>
-      <c r="D60" s="59">
+      <c r="C62" s="54"/>
+      <c r="D62" s="55">
         <v>51</v>
       </c>
-      <c r="E60" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
-      <c r="B61" s="58" t="s">
+      <c r="E62" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="54"/>
+      <c r="B63" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C61" s="58"/>
-      <c r="D61" s="59">
+      <c r="C63" s="54"/>
+      <c r="D63" s="55">
         <v>50</v>
       </c>
-      <c r="E61" s="59">
+      <c r="E63" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="58"/>
-      <c r="B62" s="58" t="s">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C62" s="58"/>
-      <c r="D62" s="59">
+      <c r="C64" s="54"/>
+      <c r="D64" s="55">
         <v>105</v>
       </c>
-      <c r="E62" s="59">
+      <c r="E64" s="55">
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="58"/>
-      <c r="B63" s="58" t="s">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C63" s="58"/>
-      <c r="D63" s="59">
+      <c r="C65" s="54"/>
+      <c r="D65" s="55">
         <v>41</v>
       </c>
-      <c r="E63" s="59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="58"/>
-      <c r="B64" s="58" t="s">
+      <c r="E65" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="54"/>
+      <c r="B66" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C64" s="58"/>
-      <c r="D64" s="58"/>
-      <c r="E64" s="58"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="58"/>
-      <c r="B65" s="58" t="s">
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C65" s="58"/>
-      <c r="D65" s="58"/>
-      <c r="E65" s="58"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="58"/>
-      <c r="B66" s="58" t="s">
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="54"/>
+      <c r="B68" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="C66" s="58"/>
-      <c r="D66" s="58"/>
-      <c r="E66" s="58"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="58"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="58"/>
-      <c r="D67" s="58"/>
-      <c r="E67" s="58"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="58"/>
-      <c r="B68" s="58"/>
-      <c r="C68" s="58"/>
-      <c r="D68" s="58"/>
-      <c r="E68" s="58"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="58"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="58"/>
-      <c r="E69" s="58"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="58"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="58"/>
-      <c r="D70" s="58"/>
-      <c r="E70" s="58"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="58"/>
-      <c r="B71" s="58"/>
-      <c r="C71" s="58"/>
-      <c r="D71" s="58"/>
-      <c r="E71" s="58"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="28" type="noConversion"/>
@@ -3610,13 +3719,13 @@
   </cols>
   <sheetData>
     <row r="9" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
     </row>
     <row r="11" spans="5:9" ht="28.5" x14ac:dyDescent="0.25">
       <c r="E11" s="2" t="s">
@@ -3769,13 +3878,13 @@
       </c>
     </row>
     <row r="23" spans="5:9" x14ac:dyDescent="0.25">
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" s="9" t="s">
@@ -3935,13 +4044,13 @@
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E35" s="55" t="s">
+      <c r="E35" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="56"/>
+      <c r="H35" s="56"/>
+      <c r="I35" s="56"/>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E37" s="9" t="s">
